--- a/data/case1/9/P2_14.xlsx
+++ b/data/case1/9/P2_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.12119007837671347</v>
+        <v>0.1204449352092638</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999992546422334</v>
+        <v>-0.0099999992861405929</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999992580409582</v>
+        <v>-0.036231432815501563</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.28398981370732201</v>
+        <v>0.28399068916020909</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999992789663281</v>
+        <v>-0.084096086473598675</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999992532517865</v>
+        <v>-0.0059999992830803706</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999131197654</v>
+        <v>-0.019999999160580373</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999125949408</v>
+        <v>-0.019999999153377246</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999992413732883</v>
+        <v>-0.0059999992653239076</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999992378081402</v>
+        <v>-0.0059999992585773043</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999992505339037</v>
+        <v>-0.0044999992714203074</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999992371499999</v>
+        <v>-0.0059999992571504457</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999992359900389</v>
+        <v>-0.0059999992517134615</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999184673094</v>
+        <v>-0.011999999199057143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999992372121724</v>
+        <v>0.017733910635444161</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999992394410562</v>
+        <v>-0.0059999992475718855</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999992449384365</v>
+        <v>-0.0059999992442856254</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.032384783983859577</v>
+        <v>-0.0089999992178624311</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999992620706237</v>
+        <v>-0.0089999992940379414</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999992506442084</v>
+        <v>-0.0089999992879157276</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.025241224214990421</v>
+        <v>-0.0089999992870062329</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.011207867553312933</v>
+        <v>-0.0089999992863658562</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.065450730957628878</v>
+        <v>-0.0089999992821354624</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999998954200812</v>
+        <v>-0.041999998987698461</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999998948915263</v>
+        <v>-0.041999998982228171</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999992508217304</v>
+        <v>-0.0059999992824835147</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999992471864161</v>
+        <v>-0.0059999992812675984</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999992305908023</v>
+        <v>-0.0059999992748469566</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999168621045</v>
+        <v>-0.011999999219755253</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999095148713</v>
+        <v>-0.019999999150082992</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999130811403</v>
+        <v>-0.014999999193213043</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999078143539</v>
+        <v>0.0237147251299481</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999992064723173</v>
+        <v>-0.0059999992708945626</v>
       </c>
     </row>
   </sheetData>
